--- a/Assets/Scenario/bob.xlsx
+++ b/Assets/Scenario/bob.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>&lt;Page&gt;</t>
   </si>
   <si>
     <t>talk</t>
+  </si>
+  <si>
+    <t>ボブ</t>
   </si>
   <si>
     <t>ぼくはボブです。</t>
@@ -291,10 +294,13 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
